--- a/biology/Zoologie/Grive_à_lunules/Grive_à_lunules.xlsx
+++ b/biology/Zoologie/Grive_à_lunules/Grive_à_lunules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_lunules</t>
+          <t>Grive_à_lunules</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zoothera lunulata
 La Grive à lunules (Zoothera lunulata) est une espèce de passereaux de la famille des Turdidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_lunules</t>
+          <t>Grive_à_lunules</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles possèdent un plumage cryptique leur servant de camouflage.
 Cet oiseau mesure 27-29 cm pour un poids de 90-120 g.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_lunules</t>
+          <t>Grive_à_lunules</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Z. l. cuneata (De Vis, 1889) : Queensland ;
 Z. l. lunulata (Latham, 1801) : sud-est de l'Australie, Tasmanie et îles du détroit de Bass ;
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_lunules</t>
+          <t>Grive_à_lunules</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces oiseaux ont la particularité de flatuler afin de faire révéler les vers à la surface du sol[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces oiseaux ont la particularité de flatuler afin de faire révéler les vers à la surface du sol.
 </t>
         </is>
       </c>
